--- a/Output/Habitat_Quality_Scores_for_WebMap.xlsx
+++ b/Output/Habitat_Quality_Scores_for_WebMap.xlsx
@@ -9591,7 +9591,7 @@
         <v>21</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I158"/>
       <c r="J158"/>
@@ -9636,7 +9636,7 @@
         <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I159"/>
       <c r="J159"/>
@@ -12195,7 +12195,7 @@
       <c r="F214"/>
       <c r="G214"/>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I214"/>
       <c r="J214"/>
@@ -15390,7 +15390,7 @@
       <c r="F293"/>
       <c r="G293"/>
       <c r="H293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I293"/>
       <c r="J293"/>
@@ -15608,7 +15608,7 @@
       <c r="F299"/>
       <c r="G299"/>
       <c r="H299" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I299"/>
       <c r="J299"/>
@@ -16634,7 +16634,7 @@
         <v>20</v>
       </c>
       <c r="H323" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I323" t="s">
         <v>20</v>
@@ -16658,10 +16658,10 @@
         <v>19</v>
       </c>
       <c r="P323" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="324">
@@ -16687,7 +16687,7 @@
         <v>20</v>
       </c>
       <c r="H324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I324" t="s">
         <v>21</v>
@@ -16711,10 +16711,10 @@
         <v>21</v>
       </c>
       <c r="P324" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="325">
@@ -17145,7 +17145,7 @@
         <v>21</v>
       </c>
       <c r="H334" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I334"/>
       <c r="J334"/>
@@ -17955,7 +17955,7 @@
         <v>21</v>
       </c>
       <c r="H352" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I352" t="s">
         <v>21</v>
@@ -21167,7 +21167,7 @@
       <c r="F416"/>
       <c r="G416"/>
       <c r="H416" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
@@ -22060,7 +22060,7 @@
         <v>21</v>
       </c>
       <c r="H437" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I437" t="s">
         <v>20</v>
@@ -22084,10 +22084,10 @@
         <v>19</v>
       </c>
       <c r="P437" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q437" t="n">
-        <v>0.777777777777778</v>
+        <v>0.822222222222222</v>
       </c>
     </row>
     <row r="438">
@@ -22482,7 +22482,7 @@
         <v>20</v>
       </c>
       <c r="H445" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I445" t="s">
         <v>20</v>
@@ -22506,10 +22506,10 @@
         <v>19</v>
       </c>
       <c r="P445" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q445" t="n">
-        <v>0.488888888888889</v>
+        <v>0.533333333333333</v>
       </c>
     </row>
     <row r="446">
@@ -22825,7 +22825,7 @@
         <v>20</v>
       </c>
       <c r="H452" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I452" t="s">
         <v>20</v>
@@ -23177,7 +23177,7 @@
         <v>19</v>
       </c>
       <c r="H460" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I460" t="s">
         <v>21</v>
@@ -28209,7 +28209,7 @@
         <v>21</v>
       </c>
       <c r="H574" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I574"/>
       <c r="J574"/>
@@ -28252,7 +28252,7 @@
         <v>20</v>
       </c>
       <c r="H575" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I575"/>
       <c r="J575"/>
@@ -30429,7 +30429,7 @@
         <v>20</v>
       </c>
       <c r="H628" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I628" t="s">
         <v>20</v>
@@ -30474,7 +30474,7 @@
         <v>20</v>
       </c>
       <c r="H629" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I629" t="s">
         <v>20</v>
@@ -30818,7 +30818,7 @@
         <v>20</v>
       </c>
       <c r="H637" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I637" t="s">
         <v>20</v>
@@ -31794,7 +31794,7 @@
         <v>21</v>
       </c>
       <c r="H657" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I657" t="s">
         <v>20</v>
@@ -31818,10 +31818,10 @@
         <v>19</v>
       </c>
       <c r="P657" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q657" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="658">
